--- a/CETC/ExcelFile/deviceEnable.xlsx
+++ b/CETC/ExcelFile/deviceEnable.xlsx
@@ -416,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,6 +751,94 @@
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
